--- a/biology/Zoologie/Grammistinae/Grammistinae.xlsx
+++ b/biology/Zoologie/Grammistinae/Grammistinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Grammistinae sont une sous-famille de poissons téléostéens, de la famille des Serranidae. La plupart des espèces sont dénommées en français « poissons-savon ». 
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une petite famille de serranidés, caractérisés par la toxine gluante qu'ils contiennent dans leur peau, qui peut être relâchée en cas de menace (toxine simplement irritante pour l'Homme, mais pouvant rendre d'autres poissons placés dans un même récipient impropres à la consommation)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une petite famille de serranidés, caractérisés par la toxine gluante qu'ils contiennent dans leur peau, qui peut être relâchée en cas de menace (toxine simplement irritante pour l'Homme, mais pouvant rendre d'autres poissons placés dans un même récipient impropres à la consommation).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (15 février 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (15 février 2017) :
 genre Aporops Schultz, 1943
 genre Aulacocephalus Temminck &amp; Schlegel, 1843
 genre Belonoperca Fowler &amp; Bean, 1930
